--- a/02_Data/04_Social indicators/02_Cleaned Data/Risk of Poverty or Social Exclusion.xlsx
+++ b/02_Data/04_Social indicators/02_Cleaned Data/Risk of Poverty or Social Exclusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\02_Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A8A82D-FCC7-4280-B11D-6C4E15900627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8893D76A-F7D5-470C-BA8A-8111C4683F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2783,13 +2783,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="G402" sqref="G402"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>3</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>3</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>3</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>3</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>3</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>3</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>3</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>3</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>3</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>3</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>3</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>3</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>3</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>3</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>3</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>3</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>3</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>3</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>3</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>3</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>3</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>3</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>3</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>3</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>3</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>3</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>3</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>3</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>3</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>3</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>3</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>3</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>3</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>3</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>3</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>3</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>3</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>3</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>3</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>3</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>3</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>3</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>3</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>3</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>3</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>3</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>3</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>3</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>3</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>3</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>3</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>3</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>3</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>3</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>3</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>3</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>3</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>3</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>3</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>3</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>3</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>3</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>3</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>3</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>3</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>3</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>3</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>3</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>3</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>3</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>3</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>3</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>3</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>3</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>3</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>3</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>3</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>3</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>3</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>3</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>3</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>3</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>3</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>3</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>3</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>3</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>3</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>3</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>3</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>3</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>3</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>3</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>3</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>3</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>3</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>3</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>3</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>3</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>3</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>3</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>3</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>3</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>3</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>3</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>3</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>3</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>3</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>3</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>3</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>3</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>3</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>3</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>3</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>3</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>3</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>3</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>3</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>3</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>3</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>3</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>3</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>3</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>3</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>3</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>3</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>3</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>3</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>3</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>3</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>3</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>3</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>3</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>3</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>3</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>3</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>3</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>3</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>3</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>3</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>3</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>3</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>3</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>3</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>3</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>3</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>3</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>3</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>3</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>3</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>3</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>3</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>3</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>3</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>3</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>3</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>3</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>3</v>
       </c>

--- a/02_Data/04_Social indicators/02_Cleaned Data/Risk of Poverty or Social Exclusion.xlsx
+++ b/02_Data/04_Social indicators/02_Cleaned Data/Risk of Poverty or Social Exclusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\02_Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8893D76A-F7D5-470C-BA8A-8111C4683F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB730D-AF0B-48A7-878C-9B0C7AC66B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1230" windowWidth="12870" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="827">
   <si>
     <t xml:space="preserve">Country </t>
   </si>
@@ -2455,13 +2455,77 @@
   </si>
   <si>
     <t xml:space="preserve">nuts_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary </t>
+  </si>
+  <si>
+    <t>Közép-Magyaország</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Pest</t>
+  </si>
+  <si>
+    <t>Közép-Dunántúl</t>
+  </si>
+  <si>
+    <t>Nyugat-Dunántúl</t>
+  </si>
+  <si>
+    <t>Dél-Dunántúl</t>
+  </si>
+  <si>
+    <t>Észak-Magyarország</t>
+  </si>
+  <si>
+    <t>Észak-Alföld</t>
+  </si>
+  <si>
+    <t>Dél-Alföld</t>
+  </si>
+  <si>
+    <t>NUTS2</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>HU31</t>
+  </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>HU12</t>
+  </si>
+  <si>
+    <t>HU21</t>
+  </si>
+  <si>
+    <t>HU22</t>
+  </si>
+  <si>
+    <t>HU23</t>
+  </si>
+  <si>
+    <t>HU32</t>
+  </si>
+  <si>
+    <t>HU33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2477,13 +2541,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2495,15 +2597,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AE194EB5-7B8F-4B79-9350-FB1B47095583}"/>
+    <cellStyle name="Normál_F15A" xfId="2" xr:uid="{A72B2ADE-703E-442C-B9C5-4323C65A52A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2781,15 +2905,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G402"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="G406" sqref="G406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2936,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2829,7 +2953,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2846,7 +2970,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2863,7 +2987,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2880,7 +3004,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +3021,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2914,7 +3038,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +3055,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2948,7 +3072,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2965,7 +3089,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +3106,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +3123,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3016,7 +3140,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3033,7 +3157,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3174,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3191,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3084,7 +3208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3101,7 +3225,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -3118,7 +3242,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3135,7 +3259,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3276,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3169,7 +3293,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3310,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3203,7 +3327,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3220,7 +3344,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3237,7 +3361,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3254,7 +3378,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3271,7 +3395,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -3288,7 +3412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -3305,7 +3429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -3322,7 +3446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3339,7 +3463,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -3356,7 +3480,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3373,7 +3497,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3514,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -3407,7 +3531,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -3424,7 +3548,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3565,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3458,7 +3582,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3475,7 +3599,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3616,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -3509,7 +3633,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3526,7 +3650,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -3543,7 +3667,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3560,7 +3684,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3577,7 +3701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3594,7 +3718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -3611,7 +3735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3628,7 +3752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -3645,7 +3769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3786,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -3679,7 +3803,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3696,7 +3820,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3713,7 +3837,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -3730,7 +3854,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3747,7 +3871,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +3888,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3781,7 +3905,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3798,7 +3922,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3939,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3956,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -3849,7 +3973,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -3866,7 +3990,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -3883,7 +4007,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -3900,7 +4024,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +4041,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -3934,7 +4058,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -3951,7 +4075,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -3968,7 +4092,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3985,7 +4109,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -4002,7 +4126,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4143,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -4036,7 +4160,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -4053,7 +4177,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -4070,7 +4194,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4211,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -4104,7 +4228,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4245,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4262,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -4155,7 +4279,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -4172,7 +4296,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4313,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -4206,7 +4330,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -4223,7 +4347,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -4240,7 +4364,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -4257,7 +4381,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -4274,7 +4398,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -4291,7 +4415,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -4308,7 +4432,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4449,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -4342,7 +4466,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -4359,7 +4483,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -4376,7 +4500,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -4393,7 +4517,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -4410,7 +4534,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -4427,7 +4551,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -4444,7 +4568,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -4461,7 +4585,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -4478,7 +4602,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -4495,7 +4619,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -4512,7 +4636,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -4529,7 +4653,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -4546,7 +4670,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -4563,7 +4687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +4704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -4597,7 +4721,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -4614,7 +4738,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -4631,7 +4755,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -4648,7 +4772,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -4665,7 +4789,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -4682,7 +4806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -4699,7 +4823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4716,7 +4840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -4733,7 +4857,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -4750,7 +4874,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -4767,7 +4891,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -4784,7 +4908,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -4801,7 +4925,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -4818,7 +4942,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -4835,7 +4959,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -4852,7 +4976,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -4869,7 +4993,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -4886,7 +5010,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -4903,7 +5027,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -4920,7 +5044,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -4937,7 +5061,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -4954,7 +5078,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -4971,7 +5095,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -4988,7 +5112,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5129,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -5022,7 +5146,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -5039,7 +5163,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +5180,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -5073,7 +5197,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -5090,7 +5214,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -5107,7 +5231,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -5124,7 +5248,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -5141,7 +5265,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -5158,7 +5282,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -5175,7 +5299,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -5192,7 +5316,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -5209,7 +5333,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -5226,7 +5350,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -5243,7 +5367,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -5260,7 +5384,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -5277,7 +5401,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -5294,7 +5418,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -5311,7 +5435,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -5328,7 +5452,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -5345,7 +5469,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -5362,7 +5486,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -5379,7 +5503,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -5396,7 +5520,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -5413,7 +5537,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -5430,7 +5554,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -5447,7 +5571,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -5464,7 +5588,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -5481,7 +5605,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -5498,7 +5622,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -5515,7 +5639,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -5532,7 +5656,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -5549,7 +5673,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3</v>
       </c>
@@ -5566,7 +5690,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -5583,7 +5707,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -5600,7 +5724,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -5617,7 +5741,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -5634,7 +5758,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -5651,7 +5775,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5792,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -5685,7 +5809,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -5702,7 +5826,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -5719,7 +5843,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -5736,7 +5860,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -5753,7 +5877,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -5770,7 +5894,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -5787,7 +5911,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -5804,7 +5928,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -5821,7 +5945,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -5838,7 +5962,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -5855,7 +5979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -5872,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -5889,7 +6013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>3</v>
       </c>
@@ -5906,7 +6030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -5923,7 +6047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>3</v>
       </c>
@@ -5940,7 +6064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>3</v>
       </c>
@@ -5957,7 +6081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5974,7 +6098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -5991,7 +6115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>3</v>
       </c>
@@ -6008,7 +6132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>3</v>
       </c>
@@ -6025,7 +6149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>3</v>
       </c>
@@ -6042,7 +6166,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>3</v>
       </c>
@@ -6059,7 +6183,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -6076,7 +6200,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -6093,7 +6217,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>3</v>
       </c>
@@ -6110,7 +6234,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -6127,7 +6251,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>3</v>
       </c>
@@ -6144,7 +6268,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6285,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>3</v>
       </c>
@@ -6178,7 +6302,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -6195,7 +6319,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -6212,7 +6336,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3</v>
       </c>
@@ -6229,7 +6353,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -6246,7 +6370,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -6263,7 +6387,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -6280,7 +6404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -6297,7 +6421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>3</v>
       </c>
@@ -6331,7 +6455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -6348,7 +6472,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -6365,7 +6489,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>3</v>
       </c>
@@ -6382,7 +6506,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -6399,7 +6523,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>3</v>
       </c>
@@ -6416,7 +6540,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>3</v>
       </c>
@@ -6433,7 +6557,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +6574,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -6467,7 +6591,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3</v>
       </c>
@@ -6484,7 +6608,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -6501,7 +6625,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>3</v>
       </c>
@@ -6518,7 +6642,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -6535,7 +6659,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>3</v>
       </c>
@@ -6552,7 +6676,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -6569,7 +6693,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -6586,7 +6710,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3</v>
       </c>
@@ -6603,7 +6727,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -6620,7 +6744,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -6637,7 +6761,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -6654,7 +6778,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>3</v>
       </c>
@@ -6671,7 +6795,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -6688,7 +6812,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -6705,7 +6829,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>3</v>
       </c>
@@ -6722,7 +6846,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -6739,7 +6863,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -6756,7 +6880,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -6773,7 +6897,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -6790,7 +6914,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -6807,7 +6931,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -6824,7 +6948,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -6841,7 +6965,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -6858,7 +6982,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -6875,7 +6999,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -6892,7 +7016,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -6909,7 +7033,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -6926,7 +7050,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3</v>
       </c>
@@ -6943,7 +7067,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>3</v>
       </c>
@@ -6960,7 +7084,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -6977,7 +7101,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>3</v>
       </c>
@@ -6994,7 +7118,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -7011,7 +7135,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -7028,7 +7152,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -7045,7 +7169,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -7062,7 +7186,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -7079,7 +7203,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -7096,7 +7220,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -7113,7 +7237,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -7130,7 +7254,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>3</v>
       </c>
@@ -7147,7 +7271,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3</v>
       </c>
@@ -7164,7 +7288,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3</v>
       </c>
@@ -7181,7 +7305,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -7198,7 +7322,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>3</v>
       </c>
@@ -7215,7 +7339,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>3</v>
       </c>
@@ -7232,7 +7356,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>3</v>
       </c>
@@ -7249,7 +7373,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>3</v>
       </c>
@@ -7266,7 +7390,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>3</v>
       </c>
@@ -7283,7 +7407,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>3</v>
       </c>
@@ -7300,7 +7424,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>3</v>
       </c>
@@ -7317,7 +7441,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -7334,7 +7458,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>3</v>
       </c>
@@ -7351,7 +7475,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>3</v>
       </c>
@@ -7368,7 +7492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>3</v>
       </c>
@@ -7385,7 +7509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>3</v>
       </c>
@@ -7402,7 +7526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>3</v>
       </c>
@@ -7419,7 +7543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>3</v>
       </c>
@@ -7436,7 +7560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>3</v>
       </c>
@@ -7453,7 +7577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>3</v>
       </c>
@@ -7470,7 +7594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -7487,7 +7611,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>3</v>
       </c>
@@ -7504,7 +7628,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>3</v>
       </c>
@@ -7521,7 +7645,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>3</v>
       </c>
@@ -7538,7 +7662,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>3</v>
       </c>
@@ -7555,7 +7679,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>3</v>
       </c>
@@ -7572,7 +7696,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>3</v>
       </c>
@@ -7589,7 +7713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>3</v>
       </c>
@@ -7606,7 +7730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>3</v>
       </c>
@@ -7623,7 +7747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>3</v>
       </c>
@@ -7640,7 +7764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>3</v>
       </c>
@@ -7657,7 +7781,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>3</v>
       </c>
@@ -7674,7 +7798,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>3</v>
       </c>
@@ -7691,7 +7815,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>3</v>
       </c>
@@ -7708,7 +7832,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>3</v>
       </c>
@@ -7725,7 +7849,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>3</v>
       </c>
@@ -7742,7 +7866,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -7759,7 +7883,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>3</v>
       </c>
@@ -7776,7 +7900,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>3</v>
       </c>
@@ -7793,7 +7917,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>3</v>
       </c>
@@ -7810,7 +7934,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -7827,7 +7951,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -7844,7 +7968,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>3</v>
       </c>
@@ -7861,7 +7985,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>3</v>
       </c>
@@ -7878,7 +8002,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>3</v>
       </c>
@@ -7895,7 +8019,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>3</v>
       </c>
@@ -7912,7 +8036,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>3</v>
       </c>
@@ -7929,7 +8053,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>3</v>
       </c>
@@ -7946,7 +8070,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -7963,7 +8087,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>3</v>
       </c>
@@ -7980,7 +8104,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>3</v>
       </c>
@@ -7997,7 +8121,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>3</v>
       </c>
@@ -8014,7 +8138,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>3</v>
       </c>
@@ -8031,7 +8155,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>3</v>
       </c>
@@ -8048,7 +8172,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>3</v>
       </c>
@@ -8065,7 +8189,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>3</v>
       </c>
@@ -8082,7 +8206,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>3</v>
       </c>
@@ -8099,7 +8223,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>3</v>
       </c>
@@ -8116,7 +8240,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>3</v>
       </c>
@@ -8133,7 +8257,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -8150,7 +8274,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>3</v>
       </c>
@@ -8167,7 +8291,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>3</v>
       </c>
@@ -8184,7 +8308,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>3</v>
       </c>
@@ -8201,7 +8325,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>3</v>
       </c>
@@ -8218,7 +8342,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>3</v>
       </c>
@@ -8235,7 +8359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>3</v>
       </c>
@@ -8269,7 +8393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>3</v>
       </c>
@@ -8286,7 +8410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>3</v>
       </c>
@@ -8303,7 +8427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -8320,7 +8444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>3</v>
       </c>
@@ -8337,7 +8461,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -8354,7 +8478,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>3</v>
       </c>
@@ -8371,7 +8495,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>3</v>
       </c>
@@ -8388,7 +8512,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -8405,7 +8529,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>3</v>
       </c>
@@ -8422,7 +8546,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>3</v>
       </c>
@@ -8439,7 +8563,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>3</v>
       </c>
@@ -8456,7 +8580,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>3</v>
       </c>
@@ -8473,7 +8597,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>3</v>
       </c>
@@ -8490,7 +8614,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>3</v>
       </c>
@@ -8507,7 +8631,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>3</v>
       </c>
@@ -8524,7 +8648,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>3</v>
       </c>
@@ -8541,7 +8665,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>3</v>
       </c>
@@ -8558,7 +8682,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>3</v>
       </c>
@@ -8575,7 +8699,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>3</v>
       </c>
@@ -8592,7 +8716,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>3</v>
       </c>
@@ -8609,7 +8733,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>3</v>
       </c>
@@ -8626,7 +8750,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>3</v>
       </c>
@@ -8643,7 +8767,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>3</v>
       </c>
@@ -8660,7 +8784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -8677,7 +8801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>3</v>
       </c>
@@ -8694,7 +8818,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>3</v>
       </c>
@@ -8711,7 +8835,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>3</v>
       </c>
@@ -8728,7 +8852,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>3</v>
       </c>
@@ -8745,7 +8869,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>3</v>
       </c>
@@ -8762,7 +8886,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>3</v>
       </c>
@@ -8779,7 +8903,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -8796,7 +8920,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>3</v>
       </c>
@@ -8813,7 +8937,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>3</v>
       </c>
@@ -8830,7 +8954,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>3</v>
       </c>
@@ -8847,7 +8971,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>3</v>
       </c>
@@ -8864,7 +8988,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>3</v>
       </c>
@@ -8881,7 +9005,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>3</v>
       </c>
@@ -8898,7 +9022,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>3</v>
       </c>
@@ -8915,7 +9039,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>3</v>
       </c>
@@ -8932,7 +9056,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>3</v>
       </c>
@@ -8949,7 +9073,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>3</v>
       </c>
@@ -8966,7 +9090,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>3</v>
       </c>
@@ -8983,7 +9107,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>3</v>
       </c>
@@ -9000,7 +9124,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -9017,7 +9141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>3</v>
       </c>
@@ -9034,7 +9158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>3</v>
       </c>
@@ -9051,7 +9175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>3</v>
       </c>
@@ -9068,7 +9192,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>3</v>
       </c>
@@ -9085,7 +9209,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>3</v>
       </c>
@@ -9102,7 +9226,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>3</v>
       </c>
@@ -9119,7 +9243,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>3</v>
       </c>
@@ -9136,7 +9260,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>3</v>
       </c>
@@ -9153,7 +9277,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>3</v>
       </c>
@@ -9170,7 +9294,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>3</v>
       </c>
@@ -9187,7 +9311,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>3</v>
       </c>
@@ -9204,7 +9328,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>3</v>
       </c>
@@ -9221,7 +9345,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>3</v>
       </c>
@@ -9238,7 +9362,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>3</v>
       </c>
@@ -9255,7 +9379,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>3</v>
       </c>
@@ -9272,7 +9396,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>3</v>
       </c>
@@ -9289,7 +9413,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>3</v>
       </c>
@@ -9306,7 +9430,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>3</v>
       </c>
@@ -9323,7 +9447,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>3</v>
       </c>
@@ -9340,7 +9464,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>3</v>
       </c>
@@ -9357,7 +9481,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>3</v>
       </c>
@@ -9374,7 +9498,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>3</v>
       </c>
@@ -9391,7 +9515,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>3</v>
       </c>
@@ -9408,7 +9532,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>3</v>
       </c>
@@ -9425,7 +9549,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>3</v>
       </c>
@@ -9442,7 +9566,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>3</v>
       </c>
@@ -9459,7 +9583,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>3</v>
       </c>
@@ -9476,7 +9600,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>3</v>
       </c>
@@ -9493,7 +9617,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>3</v>
       </c>
@@ -9510,7 +9634,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>3</v>
       </c>
@@ -9527,7 +9651,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>3</v>
       </c>
@@ -9544,7 +9668,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>3</v>
       </c>
@@ -9561,7 +9685,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>3</v>
       </c>
@@ -9578,7 +9702,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>3</v>
       </c>
@@ -9595,7 +9719,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>3</v>
       </c>
@@ -9612,7 +9736,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>3</v>
       </c>
@@ -9629,7 +9753,188 @@
         <v>16.600000000000001</v>
       </c>
     </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>807</v>
+      </c>
+      <c r="B403" t="s">
+        <v>819</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D403" t="s">
+        <v>817</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F403" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>807</v>
+      </c>
+      <c r="B404" t="s">
+        <v>820</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D404" t="s">
+        <v>817</v>
+      </c>
+      <c r="E404" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="F404" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>807</v>
+      </c>
+      <c r="B405" t="s">
+        <v>821</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D405" t="s">
+        <v>817</v>
+      </c>
+      <c r="E405" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="F405" s="6">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>807</v>
+      </c>
+      <c r="B406" t="s">
+        <v>822</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D406" t="s">
+        <v>817</v>
+      </c>
+      <c r="E406" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="F406" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>807</v>
+      </c>
+      <c r="B407" t="s">
+        <v>823</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D407" t="s">
+        <v>817</v>
+      </c>
+      <c r="E407" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="F407" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>807</v>
+      </c>
+      <c r="B408" t="s">
+        <v>824</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D408" t="s">
+        <v>817</v>
+      </c>
+      <c r="E408" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="F408" s="6">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>807</v>
+      </c>
+      <c r="B409" t="s">
+        <v>819</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D409" t="s">
+        <v>817</v>
+      </c>
+      <c r="E409" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="F409" s="6">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>807</v>
+      </c>
+      <c r="B410" t="s">
+        <v>825</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D410" t="s">
+        <v>817</v>
+      </c>
+      <c r="E410" s="3">
+        <v>24.1</v>
+      </c>
+      <c r="F410" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>807</v>
+      </c>
+      <c r="B411" t="s">
+        <v>826</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D411" t="s">
+        <v>817</v>
+      </c>
+      <c r="E411" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="F411" s="7">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
